--- a/documentation/DatabaseTables.xlsx
+++ b/documentation/DatabaseTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34e052fb42ce4471/Documents/GitHub/BIMBY-project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C6318A-0A81-40BE-BCF7-7BBCA80AA022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{42C6318A-0A81-40BE-BCF7-7BBCA80AA022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B027FC58-5287-494B-AB5E-1D658F127005}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1050" windowWidth="13960" windowHeight="19010" tabRatio="736" xr2:uid="{D7ECB080-DCDB-4005-8954-5DD471E53974}"/>
+    <workbookView minimized="1" xWindow="4440" yWindow="1300" windowWidth="13960" windowHeight="19010" tabRatio="736" firstSheet="6" activeTab="9" xr2:uid="{D7ECB080-DCDB-4005-8954-5DD471E53974}"/>
   </bookViews>
   <sheets>
     <sheet name="Relationships" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="DimensionButterfly" sheetId="3" r:id="rId7"/>
     <sheet name="Observations" sheetId="4" r:id="rId8"/>
     <sheet name="FactObservations" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -779,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,7 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,78 +1131,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5164F7E4-8CFA-4C15-9893-25AC338AF907}">
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6818042-5F91-46DE-BA57-BF82B13914DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1215,11 +1229,11 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1312,7 +1326,7 @@
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
@@ -1336,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -1393,7 +1407,7 @@
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
@@ -1485,11 +1499,11 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1593,11 +1607,11 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1689,9 +1703,9 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1716,7 +1730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1764,9 +1778,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.5" customHeight="1">
@@ -1940,12 +1954,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
